--- a/biology/Zoologie/Anglo-français_(race_de_chien)/Anglo-français_(race_de_chien).xlsx
+++ b/biology/Zoologie/Anglo-français_(race_de_chien)/Anglo-français_(race_de_chien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anglo-fran%C3%A7ais_(race_de_chien)</t>
+          <t>Anglo-français_(race_de_chien)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On désigne par anglo-français plusieurs races de chiens de chasse issues de l'alliance de chiens anglais et français. Ce sont des chiens coureurs (groupe 6 de la classification FCI).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anglo-fran%C3%A7ais_(race_de_chien)</t>
+          <t>Anglo-français_(race_de_chien)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers croisements datent très certainement du XVIe siècle, mais c'est vers la fin du XIXe siècle, sous l'impulsion des grands maîtres veneurs, que ce chien d'ordre tous terrains fut très apprécié comme chien de meute polyvalent qui chasse le cerf, le chevreuil, le sanglier et le renard.
 En fonction des chiens utilisés dans ces croisements, il existe plusieurs anglo-français qui diffèrent par leur format et leur robe :
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anglo-fran%C3%A7ais_(race_de_chien)</t>
+          <t>Anglo-français_(race_de_chien)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Chien de chasse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tête : Plutôt courte chez le Grand anglo-français, allongée chez l'anglo-français de petite vénerie. Crâne large, plat. Bosse occipitale peu marquée. Stop marqué. Chanfrein d'une longueur à peu près équivalente à celle du crâne. 
 Oreilles : Attachées au moins à la hauteur de la ligne de l'œil, courtes, plates puis légèrement tournées. Attachées bas chez l'anglo-français de petite vénerie. 
